--- a/RUDN/Importance/Varible_muatal_reg_in_Northern Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Northern Africa.xlsx
@@ -94,12 +94,12 @@
     <t>Male population 65-69</t>
   </si>
   <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
     <t>Male population 00-04</t>
   </si>
   <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
@@ -229,16 +229,19 @@
     <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
     <t>Male population 25-29</t>
@@ -247,18 +250,15 @@
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
@@ -277,15 +277,15 @@
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
@@ -310,15 +310,15 @@
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
@@ -328,18 +328,18 @@
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 35-39, female (% of female population)</t>
   </si>
   <si>
@@ -358,6 +358,9 @@
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
@@ -367,9 +370,6 @@
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Population, female</t>
   </si>
   <si>
@@ -457,6 +457,9 @@
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
@@ -466,9 +469,6 @@
     <t>Population, female (% of total)</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -538,18 +538,18 @@
     <t>Death rate, crude (per 1,000 people)</t>
   </si>
   <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
     <t>Population, male</t>
   </si>
   <si>
@@ -598,12 +598,12 @@
     <t>Forest area (sq. km)</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
     <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
@@ -613,12 +613,15 @@
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
@@ -628,9 +631,6 @@
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
@@ -640,21 +640,21 @@
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
@@ -682,15 +682,15 @@
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
@@ -715,16 +715,19 @@
     <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of GDP)</t>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
@@ -733,15 +736,12 @@
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
@@ -754,33 +754,33 @@
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>Persistence to last grade of primary, female (% of cohort)</t>
   </si>
   <si>
@@ -820,12 +820,15 @@
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>Reported cases of malaria</t>
   </si>
   <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
@@ -847,12 +850,12 @@
     <t>Status under enhanced HIPC initiative</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
@@ -865,39 +868,36 @@
     <t>People using safely managed sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
     <t>Progression to secondary school, female (%)</t>
   </si>
   <si>
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
@@ -925,12 +925,12 @@
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
@@ -988,42 +988,42 @@
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
     <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
     <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
@@ -1036,12 +1036,12 @@
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
@@ -1066,27 +1066,27 @@
     <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
     <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
     <t>Literacy rate, youth female (% of females ages 15-24)</t>
   </si>
   <si>
     <t>Literacy rate, adult female (% of females ages 15 and above)</t>
   </si>
   <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
     <t>Literacy rate, youth male (% of males ages 15-24)</t>
   </si>
   <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
     <t>Literacy rate, youth total (% of people ages 15-24)</t>
   </si>
   <si>
@@ -1099,30 +1099,30 @@
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
     <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
@@ -1138,16 +1138,16 @@
     <t>People using safely managed sanitation services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
     <t>Years</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
     <t>Reion_sub_code</t>
@@ -1535,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.641917097299955</v>
+        <v>1.639994020376878</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.421751233047765</v>
+        <v>1.421751233047766</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.340162620616814</v>
+        <v>1.340784917495923</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.337707994419001</v>
+        <v>1.340162620616814</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.335745303771052</v>
+        <v>1.338309406335155</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.309269442039178</v>
+        <v>1.309635742405477</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.242020621557444</v>
+        <v>1.240982770519593</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.216202273239096</v>
+        <v>1.215559874589325</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.215559874589325</v>
+        <v>1.215509552864795</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2111,7 +2111,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.215509552864795</v>
+        <v>1.211448652005723</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.211448652005723</v>
+        <v>1.209150991187814</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2127,7 +2127,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.192870600215234</v>
+        <v>1.193593679562391</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.189064087104663</v>
+        <v>1.192870600215234</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2143,7 +2143,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.185963361162842</v>
+        <v>1.189064087104663</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2159,7 +2159,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.181405918832969</v>
+        <v>1.181847647816359</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.179785094984576</v>
+        <v>1.181405918832969</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.164775253142154</v>
+        <v>1.162950999986544</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2231,7 +2231,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.162950999986544</v>
+        <v>1.162367801014189</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.162367801014189</v>
+        <v>1.161178849545751</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.12031108769657</v>
+        <v>1.120696586841189</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.120237502408052</v>
+        <v>1.12031108769657</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.119696305071676</v>
+        <v>1.120237502408052</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.113463367992813</v>
+        <v>1.112397642088435</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.112397642088435</v>
+        <v>1.107597691608918</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.107597691608918</v>
+        <v>1.106977756276318</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.106977756276318</v>
+        <v>1.106540291069736</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.080313535171035</v>
+        <v>1.085336928067731</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.07550753808641</v>
+        <v>1.080313535171035</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.074868181984081</v>
+        <v>1.07550753808641</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.074335152065955</v>
+        <v>1.074868181984081</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.051263290408244</v>
+        <v>1.050164389309343</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.019914702159106</v>
+        <v>1.01702254529636</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.005390963685259</v>
+        <v>1.004023442317738</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.002794178793255</v>
+        <v>1.003716034715111</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.960616480928385</v>
+        <v>0.9633000174546065</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2711,7 +2711,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.9600639642776199</v>
+        <v>0.960616480928385</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.9596914038459929</v>
+        <v>0.9600639642776199</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.9111937774441292</v>
+        <v>0.9132359019862533</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.8731144808615916</v>
+        <v>0.8679948537017894</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2927,7 +2927,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.8679948537017894</v>
+        <v>0.8652977165340323</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.8652977165340323</v>
+        <v>0.8643136201195596</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.8643136201195596</v>
+        <v>0.8641401218872327</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.861743365524033</v>
+        <v>0.8566151603958279</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2975,7 +2975,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.8414537191825695</v>
+        <v>0.8465819243107746</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2983,7 +2983,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.8414537191825695</v>
+        <v>0.8465819243107746</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3071,7 +3071,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.8132609362404837</v>
+        <v>0.8126692202641526</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.7986788314886426</v>
+        <v>0.8009813500406784</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3135,7 +3135,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.7958323496128434</v>
+        <v>0.7979538620136735</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.7933179897410993</v>
+        <v>0.7958323496128434</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.7836662604140912</v>
+        <v>0.7907485949116428</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3159,7 +3159,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.7826480167073453</v>
+        <v>0.7836662604140912</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3191,7 +3191,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.7716490449188997</v>
+        <v>0.7705742143550343</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3199,7 +3199,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.7705742143550343</v>
+        <v>0.7701741016694488</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3207,7 +3207,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.7701741016694488</v>
+        <v>0.769280742449745</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3215,7 +3215,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.769280742449745</v>
+        <v>0.7676996089550019</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3223,7 +3223,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.7676996089550019</v>
+        <v>0.7653914136612685</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.7421943884320923</v>
+        <v>0.7428351926958088</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.738789654733532</v>
+        <v>0.7421943884320923</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3319,7 +3319,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.7385350286355827</v>
+        <v>0.738789654733532</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3391,7 +3391,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.6684310370480859</v>
+        <v>0.6705233672068469</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.6676975036450479</v>
+        <v>0.6677317363487849</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3415,7 +3415,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.6638567005401801</v>
+        <v>0.6676975036450479</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.6435541966251057</v>
+        <v>0.6457099180337327</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.6430151730291853</v>
+        <v>0.6435541966251057</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.6404561760492218</v>
+        <v>0.6430151730291853</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.602769270514383</v>
+        <v>0.6015621699226668</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.5962283960990189</v>
+        <v>0.5990480720092317</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3503,7 +3503,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.5931103059973573</v>
+        <v>0.5962283960990189</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.5929037035571705</v>
+        <v>0.5931103059973573</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.5850590897710468</v>
+        <v>0.5858688063702373</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.5828206555711852</v>
+        <v>0.5838262202170683</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.5781732130934727</v>
+        <v>0.5809541397340809</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.5774875420341294</v>
+        <v>0.5788557390545004</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.5674652021592064</v>
+        <v>0.5767393965157122</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3559,7 +3559,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.5671866238992789</v>
+        <v>0.5674652021592064</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.5497230280343417</v>
+        <v>0.5495520878634013</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3599,7 +3599,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.5482917326392827</v>
+        <v>0.548772501870052</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.5389808330175283</v>
+        <v>0.5324705989870511</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.5292061038981706</v>
+        <v>0.5292217515734925</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.5266378699478749</v>
+        <v>0.5292061038981706</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.5232505207710527</v>
+        <v>0.5266378699478749</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.5204930068232403</v>
+        <v>0.5232505207710527</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.5168486538385357</v>
+        <v>0.5226908090210429</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.5163530602017488</v>
+        <v>0.5168486538385357</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.5145275110897674</v>
+        <v>0.5163530602017488</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3735,7 +3735,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.5081982228902892</v>
+        <v>0.5149433115055675</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.5049804306155374</v>
+        <v>0.5081982228902892</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3751,7 +3751,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.5033435548581915</v>
+        <v>0.5073899425993902</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.5033007024550753</v>
+        <v>0.5049182307104128</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.5010827473526642</v>
+        <v>0.5033007024550753</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3775,7 +3775,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.5006687872218258</v>
+        <v>0.5010827473526642</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.4943020170065535</v>
+        <v>0.5006687872218258</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3791,7 +3791,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.4939258488751153</v>
+        <v>0.4943020170065535</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.4924388099149815</v>
+        <v>0.4939441866493348</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3807,7 +3807,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.4880176971977328</v>
+        <v>0.4924388099149815</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.4870672829973968</v>
+        <v>0.4893968735769094</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.4819060990094981</v>
+        <v>0.4875068434369574</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3831,7 +3831,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.4789539149759248</v>
+        <v>0.4819060990094981</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.4721879147795263</v>
+        <v>0.4712998136053843</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.4720961527628318</v>
+        <v>0.4710148847754203</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3871,7 +3871,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.4678294136643955</v>
+        <v>0.4694139907820274</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -3935,7 +3935,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.4456518698000542</v>
+        <v>0.4462013203495043</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.4172369035275907</v>
+        <v>0.4223651086557962</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.4143691532659777</v>
+        <v>0.4124622366531792</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.4112259971892522</v>
+        <v>0.4107131766764314</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.4012765177638888</v>
+        <v>0.4008820404463345</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.3881141495319207</v>
+        <v>0.3885086268494751</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4087,7 +4087,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.3836792072991884</v>
+        <v>0.3837646773846588</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4095,7 +4095,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.3645383029988873</v>
+        <v>0.3757887348554156</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.3515881759289232</v>
+        <v>0.3568946541054412</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.3480897806627394</v>
+        <v>0.3462188626784199</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.3462188626784199</v>
+        <v>0.3457296539124937</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.3218940572769871</v>
+        <v>0.320795156178086</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.2837550898762615</v>
+        <v>0.2858996281653126</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.2823995062223192</v>
+        <v>0.2838833380246735</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4255,7 +4255,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.2800192533913575</v>
+        <v>0.2816275294384585</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.2472125075429776</v>
+        <v>0.2523407126711832</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4295,7 +4295,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.2319549042087972</v>
+        <v>0.2322488791396027</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.1830216335220514</v>
+        <v>0.1843188360574048</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.1819913045559403</v>
+        <v>0.1809656635302994</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.1515132243441499</v>
+        <v>0.1508721987031247</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4519,7 +4519,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.01812444124459667</v>
+        <v>0.003724496132567978</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.003724496132567978</v>
+        <v>0.001807464447743712</v>
       </c>
     </row>
     <row r="380" spans="1:2">
